--- a/October'21/07.10.2021/Daily Sales Info.xlsx
+++ b/October'21/07.10.2021/Daily Sales Info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="784" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="784" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -295,7 +295,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -304,7 +304,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Jilani Mobile Sale 25</t>
@@ -319,7 +319,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -328,7 +328,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Jilani Mobile Sale 25</t>
@@ -343,7 +343,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -352,7 +352,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Jilani Mobile Sale 5</t>
@@ -435,6 +435,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -443,6 +444,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Desh Mobile Sale 50</t>
@@ -655,7 +657,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -742,19 +744,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="20"/>
       <color theme="1"/>
@@ -769,17 +758,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1347,22 +1325,22 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1416,13 +1394,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -15192,7 +15170,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'9'!D29</f>
-        <v>729404</v>
+        <v>706789</v>
       </c>
       <c r="E4" s="2">
         <f>'9'!E29</f>
@@ -16370,7 +16348,7 @@
       <c r="C29" s="67"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>729404</v>
+        <v>706789</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -16742,7 +16720,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'10'!D29</f>
-        <v>729404</v>
+        <v>706789</v>
       </c>
       <c r="E4" s="2">
         <f>'10'!E29</f>
@@ -17920,7 +17898,7 @@
       <c r="C29" s="67"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>729404</v>
+        <v>706789</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -18292,7 +18270,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'11'!D29</f>
-        <v>729404</v>
+        <v>706789</v>
       </c>
       <c r="E4" s="2">
         <f>'11'!E29</f>
@@ -19470,7 +19448,7 @@
       <c r="C29" s="67"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>729404</v>
+        <v>706789</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -19842,7 +19820,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'12'!D29</f>
-        <v>729404</v>
+        <v>706789</v>
       </c>
       <c r="E4" s="2">
         <f>'12'!E29</f>
@@ -21020,7 +20998,7 @@
       <c r="C29" s="67"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>729404</v>
+        <v>706789</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -21392,7 +21370,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'13'!D29</f>
-        <v>729404</v>
+        <v>706789</v>
       </c>
       <c r="E4" s="2">
         <f>'13'!E29</f>
@@ -22570,7 +22548,7 @@
       <c r="C29" s="67"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>729404</v>
+        <v>706789</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -22942,7 +22920,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'14'!D29</f>
-        <v>729404</v>
+        <v>706789</v>
       </c>
       <c r="E4" s="2">
         <f>'14'!E29</f>
@@ -24120,7 +24098,7 @@
       <c r="C29" s="67"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>729404</v>
+        <v>706789</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -24492,7 +24470,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'15'!D29</f>
-        <v>729404</v>
+        <v>706789</v>
       </c>
       <c r="E4" s="2">
         <f>'15'!E29</f>
@@ -25670,7 +25648,7 @@
       <c r="C29" s="67"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>729404</v>
+        <v>706789</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -26042,7 +26020,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'16'!D29</f>
-        <v>729404</v>
+        <v>706789</v>
       </c>
       <c r="E4" s="2">
         <f>'16'!E29</f>
@@ -27220,7 +27198,7 @@
       <c r="C29" s="67"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>729404</v>
+        <v>706789</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -27592,7 +27570,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'17'!D29</f>
-        <v>729404</v>
+        <v>706789</v>
       </c>
       <c r="E4" s="2">
         <f>'17'!E29</f>
@@ -28770,7 +28748,7 @@
       <c r="C29" s="67"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>729404</v>
+        <v>706789</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -29142,7 +29120,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'18'!D29</f>
-        <v>729404</v>
+        <v>706789</v>
       </c>
       <c r="E4" s="2">
         <f>'18'!E29</f>
@@ -30320,7 +30298,7 @@
       <c r="C29" s="67"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>729404</v>
+        <v>706789</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -30597,7 +30575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
@@ -32394,7 +32372,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'19'!D29</f>
-        <v>729404</v>
+        <v>706789</v>
       </c>
       <c r="E4" s="2">
         <f>'19'!E29</f>
@@ -33572,7 +33550,7 @@
       <c r="C29" s="67"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>729404</v>
+        <v>706789</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -33944,7 +33922,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'20'!D29</f>
-        <v>729404</v>
+        <v>706789</v>
       </c>
       <c r="E4" s="2">
         <f>'20'!E29</f>
@@ -35122,7 +35100,7 @@
       <c r="C29" s="67"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>729404</v>
+        <v>706789</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -35494,7 +35472,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'21'!D29</f>
-        <v>729404</v>
+        <v>706789</v>
       </c>
       <c r="E4" s="2">
         <f>'21'!E29</f>
@@ -36672,7 +36650,7 @@
       <c r="C29" s="67"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>729404</v>
+        <v>706789</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -37044,7 +37022,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'22'!D29</f>
-        <v>729404</v>
+        <v>706789</v>
       </c>
       <c r="E4" s="2">
         <f>'22'!E29</f>
@@ -38222,7 +38200,7 @@
       <c r="C29" s="67"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>729404</v>
+        <v>706789</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -38594,7 +38572,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'23'!D29</f>
-        <v>729404</v>
+        <v>706789</v>
       </c>
       <c r="E4" s="2">
         <f>'23'!E29</f>
@@ -39772,7 +39750,7 @@
       <c r="C29" s="67"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>729404</v>
+        <v>706789</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -40144,7 +40122,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'24'!D29</f>
-        <v>729404</v>
+        <v>706789</v>
       </c>
       <c r="E4" s="2">
         <f>'24'!E29</f>
@@ -41322,7 +41300,7 @@
       <c r="C29" s="67"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>729404</v>
+        <v>706789</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -41694,7 +41672,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'25'!D29</f>
-        <v>729404</v>
+        <v>706789</v>
       </c>
       <c r="E4" s="2">
         <f>'25'!E29</f>
@@ -42872,7 +42850,7 @@
       <c r="C29" s="67"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>729404</v>
+        <v>706789</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -43244,7 +43222,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'26'!D29</f>
-        <v>729404</v>
+        <v>706789</v>
       </c>
       <c r="E4" s="2">
         <f>'26'!E29</f>
@@ -44422,7 +44400,7 @@
       <c r="C29" s="67"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>729404</v>
+        <v>706789</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -44794,7 +44772,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'27'!D29</f>
-        <v>729404</v>
+        <v>706789</v>
       </c>
       <c r="E4" s="2">
         <f>'27'!E29</f>
@@ -45972,7 +45950,7 @@
       <c r="C29" s="67"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>729404</v>
+        <v>706789</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -46344,7 +46322,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'28'!D29</f>
-        <v>729404</v>
+        <v>706789</v>
       </c>
       <c r="E4" s="2">
         <f>'28'!E29</f>
@@ -47522,7 +47500,7 @@
       <c r="C29" s="67"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>729404</v>
+        <v>706789</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -47801,7 +47779,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49604,7 +49582,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'29'!D29</f>
-        <v>729404</v>
+        <v>706789</v>
       </c>
       <c r="E4" s="2">
         <f>'29'!E29</f>
@@ -50782,7 +50760,7 @@
       <c r="C29" s="67"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>729404</v>
+        <v>706789</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -51154,7 +51132,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'30'!D29</f>
-        <v>729404</v>
+        <v>706789</v>
       </c>
       <c r="E4" s="2">
         <f>'30'!E29</f>
@@ -52332,7 +52310,7 @@
       <c r="C29" s="67"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>729404</v>
+        <v>706789</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -53479,7 +53457,7 @@
       </c>
       <c r="D15" s="21">
         <f>'1'!D15+'2'!D15+'3'!D15+'4'!D15+'5'!D15+'6'!D15+'7'!D15+'8'!D15+'9'!D15+'10'!D15+'11'!D15+'12'!D15+'13'!D15+'14'!D15+'15'!D15+'16'!D15+'17'!D15+'18'!D15+'19'!D15+'20'!D15+'21'!D15+'22'!D15+'23'!D15+'24'!D15+'25'!D15+'26'!D15+'27'!D15+'28'!D15+'29'!D15+'30'!D15+'31'!D15</f>
-        <v>76823</v>
+        <v>99438</v>
       </c>
       <c r="E15" s="21">
         <f>'1'!E15+'2'!E15+'3'!E15+'4'!E15+'5'!E15+'6'!E15+'7'!E15+'8'!E15+'9'!E15+'10'!E15+'11'!E15+'12'!E15+'13'!E15+'14'!E15+'15'!E15+'16'!E15+'17'!E15+'18'!E15+'19'!E15+'20'!E15+'21'!E15+'22'!E15+'23'!E15+'24'!E15+'25'!E15+'26'!E15+'27'!E15+'28'!E15+'29'!E15+'30'!E15+'31'!E15</f>
@@ -53515,15 +53493,15 @@
       </c>
       <c r="M15" s="20">
         <f t="shared" si="0"/>
-        <v>79663</v>
+        <v>102278</v>
       </c>
       <c r="N15" s="24">
         <f t="shared" si="1"/>
-        <v>82319</v>
+        <v>104934</v>
       </c>
       <c r="O15" s="25">
         <f t="shared" si="2"/>
-        <v>2190.7325000000001</v>
+        <v>2812.645</v>
       </c>
       <c r="P15" s="26"/>
       <c r="Q15" s="26">
@@ -53532,15 +53510,15 @@
       </c>
       <c r="R15" s="24">
         <f t="shared" si="3"/>
-        <v>79341.267500000002</v>
+        <v>101334.355</v>
       </c>
       <c r="S15" s="25">
         <f t="shared" si="4"/>
-        <v>756.79849999999999</v>
+        <v>971.64099999999996</v>
       </c>
       <c r="T15" s="27">
         <f t="shared" si="5"/>
-        <v>-30.20150000000001</v>
+        <v>184.64099999999996</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -54463,7 +54441,7 @@
       <c r="C28" s="64"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
-        <v>1254494</v>
+        <v>1277109</v>
       </c>
       <c r="E28" s="45">
         <f t="shared" si="6"/>
@@ -54499,15 +54477,15 @@
       </c>
       <c r="M28" s="45">
         <f t="shared" si="7"/>
-        <v>1314714</v>
+        <v>1337329</v>
       </c>
       <c r="N28" s="45">
         <f t="shared" si="7"/>
-        <v>1477579</v>
+        <v>1500194</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="7"/>
-        <v>36154.635000000002</v>
+        <v>36776.547500000008</v>
       </c>
       <c r="P28" s="45">
         <f t="shared" si="7"/>
@@ -54519,15 +54497,15 @@
       </c>
       <c r="R28" s="45">
         <f t="shared" si="7"/>
-        <v>1430696.365</v>
+        <v>1452689.4525000001</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="7"/>
-        <v>12489.783000000001</v>
+        <v>12704.625500000002</v>
       </c>
       <c r="T28" s="47">
         <f t="shared" si="7"/>
-        <v>1761.7829999999999</v>
+        <v>1976.6254999999996</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -54538,7 +54516,7 @@
       <c r="C29" s="67"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>729404</v>
+        <v>706789</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -56962,7 +56940,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58675,7 +58653,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60365,9 +60343,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61026,7 +61004,7 @@
         <v>29</v>
       </c>
       <c r="D15" s="29">
-        <v>17477</v>
+        <v>40092</v>
       </c>
       <c r="E15" s="30">
         <v>20</v>
@@ -61046,15 +61024,15 @@
       <c r="L15" s="20"/>
       <c r="M15" s="20">
         <f t="shared" si="0"/>
-        <v>18267</v>
+        <v>40882</v>
       </c>
       <c r="N15" s="24">
         <f t="shared" si="1"/>
-        <v>19222</v>
+        <v>41837</v>
       </c>
       <c r="O15" s="25">
         <f t="shared" si="2"/>
-        <v>502.34250000000003</v>
+        <v>1124.2550000000001</v>
       </c>
       <c r="P15" s="26"/>
       <c r="Q15" s="26">
@@ -61062,15 +61040,15 @@
       </c>
       <c r="R15" s="24">
         <f t="shared" si="3"/>
-        <v>18590.657500000001</v>
+        <v>40583.745000000003</v>
       </c>
       <c r="S15" s="25">
         <f t="shared" si="4"/>
-        <v>173.53649999999999</v>
+        <v>388.37899999999996</v>
       </c>
       <c r="T15" s="27">
         <f t="shared" si="5"/>
-        <v>44.53649999999999</v>
+        <v>259.37899999999996</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -61725,7 +61703,7 @@
       <c r="C28" s="64"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
-        <v>269157</v>
+        <v>291772</v>
       </c>
       <c r="E28" s="45">
         <f t="shared" si="6"/>
@@ -61761,15 +61739,15 @@
       </c>
       <c r="M28" s="45">
         <f t="shared" si="7"/>
-        <v>277217</v>
+        <v>299832</v>
       </c>
       <c r="N28" s="45">
         <f t="shared" si="7"/>
-        <v>307660</v>
+        <v>330275</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="7"/>
-        <v>7623.4674999999997</v>
+        <v>8245.380000000001</v>
       </c>
       <c r="P28" s="45">
         <f t="shared" si="7"/>
@@ -61781,15 +61759,15 @@
       </c>
       <c r="R28" s="45">
         <f t="shared" si="7"/>
-        <v>298498.53250000003</v>
+        <v>320491.62</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="7"/>
-        <v>2633.5615000000003</v>
+        <v>2848.404</v>
       </c>
       <c r="T28" s="47">
         <f t="shared" si="7"/>
-        <v>1095.5614999999998</v>
+        <v>1310.404</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -61800,7 +61778,7 @@
       <c r="C29" s="67"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>729404</v>
+        <v>706789</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -62173,7 +62151,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'7'!D29</f>
-        <v>729404</v>
+        <v>706789</v>
       </c>
       <c r="E4" s="2">
         <f>'7'!E29</f>
@@ -63351,7 +63329,7 @@
       <c r="C29" s="67"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>729404</v>
+        <v>706789</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -63723,7 +63701,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'8'!D29</f>
-        <v>729404</v>
+        <v>706789</v>
       </c>
       <c r="E4" s="2">
         <f>'8'!E29</f>
@@ -64901,7 +64879,7 @@
       <c r="C29" s="67"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>729404</v>
+        <v>706789</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
